--- a/medicine/Enfance/Edward_S._Ellis/Edward_S._Ellis.xlsx
+++ b/medicine/Enfance/Edward_S._Ellis/Edward_S._Ellis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward Sylvester Ellis (11 avril 1840, Geneva, Ohio – 20 juin 1916, Cliff Island, Maine) est un écrivain américain, auteur de nombreux dime novels appartenant surtout au genre du western.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ellis fut professeur, journaliste et l'auteur de centaines d'ouvrages publiés sous son nom et sous un grand nombre de pseudonymes. Il est l'auteur notamment de The Huge Hunter, or the Steam Man of the Prairies, Seth Jones, or the Captives of the Frontier et Deerhunter, romans qui furent très lus par les jeunes lecteurs jusque dans les années 1950.
-À partir du milieu des années 1880, après avoir écrit des romans pendant trente ans, Ellis a publié des ouvrages plus « sérieux » : biographies, livres historiques… L'un de ceux-ci, The Life of Colonel David Crockett, mettait en scène un discours supposé avoir été prononcé par Davy Crockett : « Not Yours To Give ». Dans ce discours, Crockett s'opposait à l'allocation d'une somme d'argent à une veuve de la Navy au motif que le Congrès n'avait pas reçu de la Constitution mandat pour faire la charité. Le discours était censé avoir été inspiré à Crockett par un certain Horatio Bunce, proche des milieux libertariens, mais dont on n'a pas de preuve de l'existence réelle[1].
+À partir du milieu des années 1880, après avoir écrit des romans pendant trente ans, Ellis a publié des ouvrages plus « sérieux » : biographies, livres historiques… L'un de ceux-ci, The Life of Colonel David Crockett, mettait en scène un discours supposé avoir été prononcé par Davy Crockett : « Not Yours To Give ». Dans ce discours, Crockett s'opposait à l'allocation d'une somme d'argent à une veuve de la Navy au motif que le Congrès n'avait pas reçu de la Constitution mandat pour faire la charité. Le discours était censé avoir été inspiré à Crockett par un certain Horatio Bunce, proche des milieux libertariens, mais dont on n'a pas de preuve de l'existence réelle.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Pseudonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En plus des 159 livres publiés sous son nom, Ellis a publié, entre autres, sous les noms suivants[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En plus des 159 livres publiés sous son nom, Ellis a publié, entre autres, sous les noms suivants :
 "James Fenimore Cooper Adams" ou "Captain Bruin Adams" (68 titres)
 "Boynton M. Belknap" (9 titres)
 "J. G. Bethune" (1 titre)
@@ -588,7 +604,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>The Last War Trial, éd. John Coghlan, Fayetteville, Ark., Phoenix International, 2009  (ISBN 9780976800781)
 The Camp in the Mountains, éd. John Coghlan, Fayetteville, Ark., Phoenix International, 2004  (ISBN 0971347085)
@@ -607,9 +625,43 @@
 Riflemen of the Miami, New York, Hurst &amp; company, 1912
 The Launch Boys’ adventures in northern waters, illustrations de Burton Donnel Hughes, Philadelphie, The John C. Winston company, 1912
 The Worst Boy, New York, American Tract Society, 1912
-Outdoor Life and Indian Stories, making open air life attractive to young Americans by telling them all about woodcraft, signs and signaling, the stars, fishing, camping ... and many other fascinating open air pursuits, Philadelphie, George F. Lasher company, 1912
-Traductions françaises
-Les titres originaux ne sont pas précisés par les éditeurs français
+Outdoor Life and Indian Stories, making open air life attractive to young Americans by telling them all about woodcraft, signs and signaling, the stars, fishing, camping ... and many other fascinating open air pursuits, Philadelphie, George F. Lasher company, 1912</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Edward_S._Ellis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edward_S._Ellis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Traductions françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les titres originaux ne sont pas précisés par les éditeurs français
 L'Ange des frontières, E. Dentu, 1865
 Bill Biddon, le trappeur du Kansas, traduit par Camille de Cendrey, A. Faure, 1866
 La Captive des Mohawks, E. Dentu, 1865
